--- a/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>-7,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,95%</t>
+          <t>-20,77%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 2,01</t>
+          <t>-18,29; 11,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 5,07</t>
+          <t>-24,76; 3,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 5,16</t>
+          <t>-35,67; 38,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 12,77</t>
+          <t>-43,69; 8,95</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>-8,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>-11,13%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -1,63</t>
+          <t>-12,87; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -1,07</t>
+          <t>-13,44; 2,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; -3,42</t>
+          <t>-23,55; 12,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -2,03</t>
+          <t>-24,6; 5,4</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,77%</t>
+          <t>-8,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>-7,84%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 0,8</t>
+          <t>-12,43; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 3,85</t>
+          <t>-12,48; 5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 1,79</t>
+          <t>-24,73; 16,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 9,55</t>
+          <t>-25,63; 15,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-14,71%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -3,1</t>
+          <t>-13,91; -3,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,92</t>
+          <t>-13,94; -0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; -6,59</t>
+          <t>-25,62; -7,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -4,34</t>
+          <t>-27,13; -0,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-7,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-6,25</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-14,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-13,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; -2,7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; -2,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-20,74; -5,71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-21,69; -5,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,67%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-20,77%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.283295261491803</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.092454611242205</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.07673514249778884</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1764273272916283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,29; 11,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,76; 3,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-35,67; 38,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-43,69; 8,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.28593629711241</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-22.6712299967136</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3566500770250468</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4170929288377453</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.8195859407305</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.153982129847775</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3819096136825384</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1418817695750671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,31%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-11,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 5,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; 2,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; 12,82</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,6; 5,4</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.200172768241744</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.74845956114705</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.08309517034992718</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.09601169867077085</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,74%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.87319376541647</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.71587850419824</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2355301215336004</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2298689271338171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; 6,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,48; 5,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,73; 16,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 15,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.585949480903531</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.624835205061316</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.12815252498674</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.06129728753774043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-8,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,6%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,71%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.927388224770656</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.549887838307609</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.08742573288626974</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1028222455865277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; -3,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,94; -0,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-25,62; -7,74</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-27,13; -0,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.42731391933677</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.29383563324017</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2472800284729664</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2891593480498815</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.481431700711977</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.027416269590922</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1657823143656024</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1300132180161377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,25</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-14,15%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-13,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; -2,7</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,85; -2,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; -5,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-21,69; -5,06</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.032442440646161</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.330017170175583</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.08524223501702619</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1134705810393943</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.0009750950001</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.17877712579727</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2027632363368524</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.221390789123415</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.899165182677959</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4454868888921095</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.0432954256446308</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.01377346603202109</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
